--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value947.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value947.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.163737871235045</v>
+        <v>1.429741740226746</v>
       </c>
       <c r="B1">
-        <v>1.739934897878945</v>
+        <v>-1</v>
       </c>
       <c r="C1">
         <v>-1</v>
       </c>
       <c r="D1">
-        <v>-1</v>
+        <v>1.372777104377747</v>
       </c>
       <c r="E1">
-        <v>1.123665818279743</v>
+        <v>0.9347159862518311</v>
       </c>
     </row>
   </sheetData>
